--- a/Exam Data.xlsx
+++ b/Exam Data.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elyès Chenik\Documents\Dauphine\M2\Exotic Options\autocall_pricer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83539DCE-558D-4FD4-8919-0D8AE1F9EFA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D940E5-AF3F-4942-A809-284CDA6F671F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="11" r:id="rId1"/>
     <sheet name="Histo underlying" sheetId="5" r:id="rId2"/>
     <sheet name="Call-Put Price" sheetId="7" r:id="rId3"/>
-    <sheet name="EUR Swap Curve" sheetId="8" r:id="rId4"/>
-    <sheet name="Credit Spread" sheetId="9" r:id="rId5"/>
-    <sheet name="dividende" sheetId="10" r:id="rId6"/>
+    <sheet name="Excel Connect" sheetId="12" r:id="rId4"/>
+    <sheet name="data help" sheetId="13" r:id="rId5"/>
+    <sheet name="EUR Swap Curve" sheetId="8" r:id="rId6"/>
+    <sheet name="Credit Spread" sheetId="9" r:id="rId7"/>
+    <sheet name="dividende" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>CALL</t>
   </si>
@@ -60,6 +62,9 @@
   </si>
   <si>
     <t>Line</t>
+  </si>
+  <si>
+    <t>Eurostoxx 50 Equaly Waigted Decrement 5%</t>
   </si>
   <si>
     <t>Eurostoxx 50</t>
@@ -206,13 +211,37 @@
     <t>2- Eurostoxx 50 Equal Weight decrement 5% Price Index ( 5% dividend)</t>
   </si>
   <si>
-    <t>Eurostoxx 50 Equaly Weighted Decrement 5%</t>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Maturity (in years)</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Eurostoxx 50 Price Index</t>
+  </si>
+  <si>
+    <t>Eurostoxx 50 Equal Weight decrement 5% Price Index ( 5% dividend)</t>
+  </si>
+  <si>
+    <t>Coupon Frequency (per year)</t>
+  </si>
+  <si>
+    <t>Fixed coupon rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number Simulation </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,7 +326,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -308,6 +337,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
@@ -641,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,25 +683,25 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -678,7 +709,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>90</v>
@@ -686,7 +717,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>70</v>
@@ -694,110 +725,110 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -811,15 +842,15 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:E5198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A5170" workbookViewId="0">
+      <selection activeCell="A5198" sqref="A5198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="3" max="3" width="51.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="51.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -828,13 +859,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -73575,7 +73606,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -73588,7 +73619,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="6">
         <v>44365</v>
@@ -73885,10 +73916,10 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="6">
         <v>44365</v>
@@ -74183,11 +74214,152 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C67CE7-09F6-41E2-90C5-1BC89781A2D1}">
+  <dimension ref="B3:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4F5509E6-8217-423D-BB8B-DE67E33E25D9}">
+          <x14:formula1>
+            <xm:f>'data help'!$C$1:$C$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D63D04D9-6350-4580-A9A6-A1F3CEAEE61B}">
+          <x14:formula1>
+            <xm:f>'data help'!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20C4B5E-8682-47E6-B89C-80282A645D3E}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -74197,106 +74369,95 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="e">
-        <f ca="1">_xll.RtGet("IDN","EURAB6E1Y=","PRIMACT_1")</f>
-        <v>#NAME?</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="11">
+        <v>-5.1000000000000004E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="e">
-        <f ca="1">_xll.RtGet("IDN","EURAB6E18M=","PRIMACT_1")</f>
-        <v>#NAME?</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="11">
+        <v>-4.9770000000000005E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="e">
-        <f ca="1">_xll.RtGet("IDN","EURAB6E2Y=","PRIMACT_1")</f>
-        <v>#NAME?</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="11">
+        <v>-4.9000000000000007E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="e">
-        <f ca="1">_xll.RtGet("IDN","EURAB6E3Y=","PRIMACT_1")</f>
-        <v>#NAME?</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="11">
+        <v>-4.3699999999999998E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="e">
-        <f ca="1">_xll.RtGet("IDN","EURAB6E4Y=","PRIMACT_1")</f>
-        <v>#NAME?</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="11">
+        <v>-3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="e">
-        <f ca="1">_xll.RtGet("IDN","EURAB6E5Y=","PRIMACT_1")</f>
-        <v>#NAME?</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="11">
+        <v>-2.8670000000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="e">
-        <f ca="1">_xll.RtGet("IDN","EURAB6E6Y=","PRIMACT_1")</f>
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="11">
+        <v>-2.0609999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="e">
-        <f ca="1">_xll.RtGet("IDN","EURAB6E7Y=","PRIMACT_1")</f>
-        <v>#NAME?</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="11">
+        <v>-1.273E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="e">
-        <f ca="1">_xll.RtGet("IDN","EURAB6E8Y=","PRIMACT_1")</f>
-        <v>#NAME?</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="11">
+        <v>-4.7900000000000004E-4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="e">
-        <f ca="1">_xll.RtGet("IDN","EURAB6E9Y=","PRIMACT_1")</f>
-        <v>#NAME?</v>
+        <v>18</v>
+      </c>
+      <c r="B11" s="11">
+        <v>3.0600000000000001E-4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="e">
-        <f ca="1">_xll.RtGet("IDN","EURAB6E10Y=","PRIMACT_1")</f>
-        <v>#NAME?</v>
+        <v>19</v>
+      </c>
+      <c r="B12" s="11">
+        <v>9.7999999999999997E-4</v>
       </c>
     </row>
   </sheetData>
@@ -74304,24 +74465,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4">
         <v>5.0000000000000001E-3</v>
@@ -74329,7 +74490,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>6.0000000000000001E-3</v>
@@ -74337,7 +74498,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
         <v>7.0000000000000001E-3</v>
@@ -74345,7 +74506,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <v>8.0000000000000002E-3</v>
@@ -74353,7 +74514,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4">
         <v>8.9999999999999993E-3</v>
@@ -74364,22 +74525,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4">
         <v>2.29E-2</v>
@@ -74388,4 +74549,226 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100549D1BE11F7DDE4AB2940B711DD8614D" ma:contentTypeVersion="5" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="1592b2c5c19955f01b68eeed345f038f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6d75818d-5d98-42f6-838b-c0bd0c63dfe7" xmlns:ns3="49c9e986-f16f-4974-a270-25b3c94fa96c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ebd92adb38eb8bd18c2066df1f9f8d86" ns2:_="" ns3:_="">
+    <xsd:import namespace="6d75818d-5d98-42f6-838b-c0bd0c63dfe7"/>
+    <xsd:import namespace="49c9e986-f16f-4974-a270-25b3c94fa96c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6d75818d-5d98-42f6-838b-c0bd0c63dfe7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="49c9e986-f16f-4974-a270-25b3c94fa96c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A8DB6AF-B064-4F72-ACD6-9DF0A9BC3503}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B077FAC-4763-42E7-AA59-FD99FAD8884F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6d75818d-5d98-42f6-838b-c0bd0c63dfe7"/>
+    <ds:schemaRef ds:uri="49c9e986-f16f-4974-a270-25b3c94fa96c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5483A61B-7A4F-4B1D-B58E-E379E7BE3DCD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>